--- a/Playground - Cleaning.xlsx
+++ b/Playground - Cleaning.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B9FA988-4DC2-46A2-A6D7-67F6DEC85711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21867115-63A4-4ED2-99D6-DF677B19F543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="US_Presidents Excel Tutorial Da" sheetId="1" r:id="rId1"/>
+    <sheet name="Worksheet" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Worksheet!$A$1:$H$47</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -32,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="144">
   <si>
     <t>S.No.</t>
   </si>
@@ -443,6 +447,27 @@
   </si>
   <si>
     <t>date updated</t>
+  </si>
+  <si>
+    <t>vice - cleaned</t>
+  </si>
+  <si>
+    <t>president - cleaned</t>
+  </si>
+  <si>
+    <t>James Monroe</t>
+  </si>
+  <si>
+    <t>William Mckinley</t>
+  </si>
+  <si>
+    <t>Aaron Burr</t>
+  </si>
+  <si>
+    <t>George Clinton</t>
+  </si>
+  <si>
+    <t>George M. Dallas</t>
   </si>
 </sst>
 </file>
@@ -1299,7 +1324,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -2703,4 +2728,1248 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D2FBBB-571F-4210-A4A8-7BF43D006D5D}">
+  <dimension ref="A1:H48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="23.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="23.5703125" style="3"/>
+    <col min="7" max="8" width="23.5703125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="4">
+        <v>5000</v>
+      </c>
+      <c r="G2" s="1">
+        <v>44391</v>
+      </c>
+      <c r="H2" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="4">
+        <v>10000</v>
+      </c>
+      <c r="G3" s="1">
+        <v>44391</v>
+      </c>
+      <c r="H3" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F4" s="4">
+        <v>15000</v>
+      </c>
+      <c r="G4" s="1">
+        <v>44391</v>
+      </c>
+      <c r="H4" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F5" s="4">
+        <v>20000</v>
+      </c>
+      <c r="G5" s="1">
+        <v>44391</v>
+      </c>
+      <c r="H5" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="4">
+        <v>25000</v>
+      </c>
+      <c r="G6" s="1">
+        <v>44391</v>
+      </c>
+      <c r="H6" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="4">
+        <v>30000</v>
+      </c>
+      <c r="G7" s="1">
+        <v>44391</v>
+      </c>
+      <c r="H7" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="4">
+        <v>35000</v>
+      </c>
+      <c r="G8" s="1">
+        <v>44391</v>
+      </c>
+      <c r="H8" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="4">
+        <v>40000</v>
+      </c>
+      <c r="G9" s="1">
+        <v>44391</v>
+      </c>
+      <c r="H9" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="4">
+        <v>45000</v>
+      </c>
+      <c r="G10" s="1">
+        <v>44391</v>
+      </c>
+      <c r="H10" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="4">
+        <v>50000</v>
+      </c>
+      <c r="G11" s="1">
+        <v>44391</v>
+      </c>
+      <c r="H11" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" t="s">
+        <v>143</v>
+      </c>
+      <c r="F12" s="4">
+        <v>55000</v>
+      </c>
+      <c r="G12" s="1">
+        <v>44391</v>
+      </c>
+      <c r="H12" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="4">
+        <v>60000</v>
+      </c>
+      <c r="G13" s="1">
+        <v>44391</v>
+      </c>
+      <c r="H13" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="4">
+        <v>65000</v>
+      </c>
+      <c r="G14" s="1">
+        <v>44391</v>
+      </c>
+      <c r="H14" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="4">
+        <v>75000</v>
+      </c>
+      <c r="G15" s="1">
+        <v>44391</v>
+      </c>
+      <c r="H15" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="4">
+        <v>85000</v>
+      </c>
+      <c r="G16" s="1">
+        <v>44391</v>
+      </c>
+      <c r="H16" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="4">
+        <v>95000</v>
+      </c>
+      <c r="G17" s="1">
+        <v>44391</v>
+      </c>
+      <c r="H17" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="4">
+        <v>105000</v>
+      </c>
+      <c r="G18" s="1">
+        <v>44391</v>
+      </c>
+      <c r="H18" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="4">
+        <v>115000</v>
+      </c>
+      <c r="G19" s="1">
+        <v>44391</v>
+      </c>
+      <c r="H19" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="4">
+        <v>125000</v>
+      </c>
+      <c r="G20" s="1">
+        <v>44391</v>
+      </c>
+      <c r="H20" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" s="4">
+        <v>135000</v>
+      </c>
+      <c r="G21" s="1">
+        <v>44391</v>
+      </c>
+      <c r="H21" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="4">
+        <v>145000</v>
+      </c>
+      <c r="G22" s="1">
+        <v>44391</v>
+      </c>
+      <c r="H22" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="4">
+        <v>155000</v>
+      </c>
+      <c r="G23" s="1">
+        <v>44391</v>
+      </c>
+      <c r="H23" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24" s="4">
+        <v>165000</v>
+      </c>
+      <c r="G24" s="1">
+        <v>44391</v>
+      </c>
+      <c r="H24" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25" s="4">
+        <v>175000</v>
+      </c>
+      <c r="G25" s="1">
+        <v>44391</v>
+      </c>
+      <c r="H25" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>140</v>
+      </c>
+      <c r="D26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" t="s">
+        <v>79</v>
+      </c>
+      <c r="F26" s="4">
+        <v>185000</v>
+      </c>
+      <c r="G26" s="1">
+        <v>44391</v>
+      </c>
+      <c r="H26" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" s="4">
+        <v>195000</v>
+      </c>
+      <c r="G27" s="1">
+        <v>44391</v>
+      </c>
+      <c r="H27" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" t="s">
+        <v>84</v>
+      </c>
+      <c r="F28" s="4">
+        <v>205000</v>
+      </c>
+      <c r="G28" s="1">
+        <v>44391</v>
+      </c>
+      <c r="H28" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" t="s">
+        <v>87</v>
+      </c>
+      <c r="F29" s="4">
+        <v>225000</v>
+      </c>
+      <c r="G29" s="1">
+        <v>44391</v>
+      </c>
+      <c r="H29" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" t="s">
+        <v>133</v>
+      </c>
+      <c r="E30" t="s">
+        <v>87</v>
+      </c>
+      <c r="F30" s="4">
+        <v>225000</v>
+      </c>
+      <c r="G30" s="1">
+        <v>44391</v>
+      </c>
+      <c r="H30" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31">
+        <v>29</v>
+      </c>
+      <c r="C31" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" t="s">
+        <v>60</v>
+      </c>
+      <c r="E31" t="s">
+        <v>90</v>
+      </c>
+      <c r="F31" s="4">
+        <v>235000</v>
+      </c>
+      <c r="G31" s="1">
+        <v>44391</v>
+      </c>
+      <c r="H31" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32">
+        <v>30</v>
+      </c>
+      <c r="C32" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" s="4">
+        <v>245000</v>
+      </c>
+      <c r="G32" s="1">
+        <v>44391</v>
+      </c>
+      <c r="H32" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33">
+        <v>31</v>
+      </c>
+      <c r="C33" t="s">
+        <v>92</v>
+      </c>
+      <c r="D33" t="s">
+        <v>60</v>
+      </c>
+      <c r="E33" t="s">
+        <v>94</v>
+      </c>
+      <c r="F33" s="4">
+        <v>255000</v>
+      </c>
+      <c r="G33" s="1">
+        <v>44391</v>
+      </c>
+      <c r="H33" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>31</v>
+      </c>
+      <c r="B34">
+        <v>32</v>
+      </c>
+      <c r="C34" t="s">
+        <v>95</v>
+      </c>
+      <c r="D34" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" t="s">
+        <v>97</v>
+      </c>
+      <c r="F34" s="4">
+        <v>265000</v>
+      </c>
+      <c r="G34" s="1">
+        <v>44391</v>
+      </c>
+      <c r="H34" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="B35">
+        <v>33</v>
+      </c>
+      <c r="C35" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35" s="4">
+        <v>275000</v>
+      </c>
+      <c r="G35" s="1">
+        <v>44391</v>
+      </c>
+      <c r="H35" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>33</v>
+      </c>
+      <c r="B36">
+        <v>34</v>
+      </c>
+      <c r="C36" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" t="s">
+        <v>60</v>
+      </c>
+      <c r="E36" t="s">
+        <v>102</v>
+      </c>
+      <c r="F36" s="4">
+        <v>285000</v>
+      </c>
+      <c r="G36" s="1">
+        <v>44391</v>
+      </c>
+      <c r="H36" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>34</v>
+      </c>
+      <c r="B37">
+        <v>35</v>
+      </c>
+      <c r="C37" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" t="s">
+        <v>105</v>
+      </c>
+      <c r="F37" s="4">
+        <v>295000</v>
+      </c>
+      <c r="G37" s="1">
+        <v>44391</v>
+      </c>
+      <c r="H37" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>35</v>
+      </c>
+      <c r="B38">
+        <v>36</v>
+      </c>
+      <c r="C38" t="s">
+        <v>105</v>
+      </c>
+      <c r="D38" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" t="s">
+        <v>38</v>
+      </c>
+      <c r="F38" s="4">
+        <v>305000</v>
+      </c>
+      <c r="G38" s="1">
+        <v>44391</v>
+      </c>
+      <c r="H38" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>36</v>
+      </c>
+      <c r="B39">
+        <v>37</v>
+      </c>
+      <c r="C39" t="s">
+        <v>102</v>
+      </c>
+      <c r="D39" t="s">
+        <v>60</v>
+      </c>
+      <c r="E39" t="s">
+        <v>108</v>
+      </c>
+      <c r="F39" s="4">
+        <v>315000</v>
+      </c>
+      <c r="G39" s="1">
+        <v>44391</v>
+      </c>
+      <c r="H39" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>37</v>
+      </c>
+      <c r="B40">
+        <v>38</v>
+      </c>
+      <c r="C40" t="s">
+        <v>109</v>
+      </c>
+      <c r="D40" t="s">
+        <v>60</v>
+      </c>
+      <c r="E40" t="s">
+        <v>38</v>
+      </c>
+      <c r="F40" s="4">
+        <v>325000</v>
+      </c>
+      <c r="G40" s="1">
+        <v>44391</v>
+      </c>
+      <c r="H40" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>38</v>
+      </c>
+      <c r="B41">
+        <v>39</v>
+      </c>
+      <c r="C41" t="s">
+        <v>111</v>
+      </c>
+      <c r="D41" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" t="s">
+        <v>113</v>
+      </c>
+      <c r="F41" s="4">
+        <v>335000</v>
+      </c>
+      <c r="G41" s="1">
+        <v>44391</v>
+      </c>
+      <c r="H41" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>39</v>
+      </c>
+      <c r="B42">
+        <v>40</v>
+      </c>
+      <c r="C42" t="s">
+        <v>114</v>
+      </c>
+      <c r="D42" t="s">
+        <v>60</v>
+      </c>
+      <c r="E42" t="s">
+        <v>116</v>
+      </c>
+      <c r="F42" s="4">
+        <v>345000</v>
+      </c>
+      <c r="G42" s="1">
+        <v>44391</v>
+      </c>
+      <c r="H42" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>40</v>
+      </c>
+      <c r="B43">
+        <v>41</v>
+      </c>
+      <c r="C43" t="s">
+        <v>116</v>
+      </c>
+      <c r="D43" t="s">
+        <v>60</v>
+      </c>
+      <c r="E43" t="s">
+        <v>118</v>
+      </c>
+      <c r="F43" s="4">
+        <v>355000</v>
+      </c>
+      <c r="G43" s="1">
+        <v>44391</v>
+      </c>
+      <c r="H43" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>41</v>
+      </c>
+      <c r="B44">
+        <v>42</v>
+      </c>
+      <c r="C44" t="s">
+        <v>119</v>
+      </c>
+      <c r="D44" t="s">
+        <v>26</v>
+      </c>
+      <c r="E44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F44" s="4">
+        <v>365000</v>
+      </c>
+      <c r="G44" s="1">
+        <v>44391</v>
+      </c>
+      <c r="H44" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>42</v>
+      </c>
+      <c r="B45">
+        <v>43</v>
+      </c>
+      <c r="C45" t="s">
+        <v>122</v>
+      </c>
+      <c r="D45" t="s">
+        <v>60</v>
+      </c>
+      <c r="E45" t="s">
+        <v>124</v>
+      </c>
+      <c r="F45" s="4">
+        <v>375000</v>
+      </c>
+      <c r="G45" s="1">
+        <v>44391</v>
+      </c>
+      <c r="H45" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>43</v>
+      </c>
+      <c r="B46">
+        <v>44</v>
+      </c>
+      <c r="C46" t="s">
+        <v>125</v>
+      </c>
+      <c r="D46" t="s">
+        <v>26</v>
+      </c>
+      <c r="E46" t="s">
+        <v>127</v>
+      </c>
+      <c r="F46" s="4">
+        <v>395000</v>
+      </c>
+      <c r="G46" s="1">
+        <v>44391</v>
+      </c>
+      <c r="H46" s="1">
+        <v>43862</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>44</v>
+      </c>
+      <c r="B47">
+        <v>45</v>
+      </c>
+      <c r="C47" t="s">
+        <v>128</v>
+      </c>
+      <c r="D47" t="s">
+        <v>60</v>
+      </c>
+      <c r="E47" t="s">
+        <v>130</v>
+      </c>
+      <c r="F47" s="4">
+        <v>405000</v>
+      </c>
+      <c r="G47" s="1">
+        <v>44391</v>
+      </c>
+      <c r="H47" s="1">
+        <v>43862</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F48"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:H47" xr:uid="{C8D2FBBB-571F-4210-A4A8-7BF43D006D5D}"/>
+  <dataConsolidate/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>